--- a/notebooks/human_study.xlsx
+++ b/notebooks/human_study.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
   <si>
     <t>Timestamp</t>
   </si>
@@ -61,49 +61,181 @@
     <t>a a b a</t>
   </si>
   <si>
-    <t>baab</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ba</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>aab</t>
+  </si>
+  <si>
+    <t>baa</t>
+  </si>
+  <si>
+    <t>)(</t>
+  </si>
+  <si>
+    <t>][</t>
+  </si>
+  <si>
+    <t>bba</t>
   </si>
   <si>
     <t>abaaba</t>
   </si>
   <si>
+    <t>abab</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>a b b</t>
+  </si>
+  <si>
+    <t>) (</t>
+  </si>
+  <si>
+    <t>[ ] ) (</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ) (</t>
+  </si>
+  <si>
+    <t>( ) ( ) ) (</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a a </t>
+  </si>
+  <si>
+    <t xml:space="preserve">a a a a </t>
+  </si>
+  <si>
+    <t>a a</t>
+  </si>
+  <si>
+    <t>a a a</t>
+  </si>
+  <si>
+    <t>baabaa</t>
+  </si>
+  <si>
+    <t>abbaabb</t>
+  </si>
+  <si>
+    <t>aabaab</t>
+  </si>
+  <si>
+    <t>baabb</t>
+  </si>
+  <si>
+    <t>([</t>
+  </si>
+  <si>
+    <t>[])(</t>
+  </si>
+  <si>
+    <t>)([()]</t>
+  </si>
+  <si>
+    <t>())(</t>
+  </si>
+  <si>
+    <t>)([[]]</t>
+  </si>
+  <si>
+    <t>baba</t>
+  </si>
+  <si>
+    <t>abbaabba</t>
+  </si>
+  <si>
+    <t>abaab</t>
+  </si>
+  <si>
+    <t>abaa</t>
+  </si>
+  <si>
+    <t>bbab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YOU ARE THE DANCING QUEEN YOUNG AND SWEET ONLY SEVENTEEN </t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>()))(</t>
+  </si>
+  <si>
+    <t>((</t>
+  </si>
+  <si>
+    <t>ab</t>
+  </si>
+  <si>
+    <t>baaa</t>
+  </si>
+  <si>
+    <t>aabaaa</t>
+  </si>
+  <si>
+    <t>bbba</t>
+  </si>
+  <si>
+    <t>baaab</t>
+  </si>
+  <si>
+    <t>aabb</t>
+  </si>
+  <si>
+    <t>)([])(</t>
+  </si>
+  <si>
+    <t>)(()[])(</t>
+  </si>
+  <si>
+    <t>)([()])(</t>
+  </si>
+  <si>
+    <t>)(())(</t>
+  </si>
+  <si>
+    <t>)([[]]])(</t>
+  </si>
+  <si>
+    <t>bab</t>
+  </si>
+  <si>
+    <t>bb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">() () </t>
+  </si>
+  <si>
     <t>bbaa</t>
   </si>
   <si>
-    <t>baabaab</t>
-  </si>
-  <si>
-    <t>aabb</t>
-  </si>
-  <si>
-    <t>)([])(</t>
-  </si>
-  <si>
-    <t>)(()[]())(</t>
-  </si>
-  <si>
-    <t>)([()])(</t>
-  </si>
-  <si>
-    <t>)(())(</t>
-  </si>
-  <si>
-    <t>)([[]])(</t>
-  </si>
-  <si>
-    <t>abab</t>
-  </si>
-  <si>
-    <t>abbaabba</t>
-  </si>
-  <si>
-    <t>abaabaaba</t>
-  </si>
-  <si>
-    <t>abababab</t>
-  </si>
-  <si>
-    <t>aabaaba</t>
+    <t>b a b b</t>
+  </si>
+  <si>
+    <t>b b</t>
+  </si>
+  <si>
+    <t>already completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">( ) </t>
+  </si>
+  <si>
+    <t>a b</t>
   </si>
 </sst>
 </file>
@@ -425,7 +557,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2">
-        <v>45427.69203385417</v>
+        <v>45428.410709965276</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>16</v>
@@ -449,28 +581,472 @@
         <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="P2" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <v>45428.41660444444</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <v>45428.42936335648</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <v>45428.43752225694</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <v>45428.572799988426</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <v>45428.75359274306</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2">
+        <v>45428.77183513889</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2">
+        <v>45429.40072186342</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2">
+        <v>45429.413242083334</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>45429.493488437496</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/human_study.xlsx
+++ b/notebooks/human_study.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="93">
   <si>
     <t>Timestamp</t>
   </si>
@@ -236,6 +236,60 @@
   </si>
   <si>
     <t>a b</t>
+  </si>
+  <si>
+    <t>bbaabbabb</t>
+  </si>
+  <si>
+    <t>[]())(</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>b a</t>
+  </si>
+  <si>
+    <t>][()</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>][[]</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>aaba, aaab</t>
+  </si>
+  <si>
+    <t>bbbbaa, bbbbbbbbaaaa</t>
+  </si>
+  <si>
+    <t>baabbaab, baabbaabbaab, baabbaabbaabbaab</t>
+  </si>
+  <si>
+    <t>)[](</t>
+  </si>
+  <si>
+    <t>(([])), [[]]</t>
+  </si>
+  <si>
+    <t>)(][)(, [()()]</t>
+  </si>
+  <si>
+    <t>)()()(</t>
+  </si>
+  <si>
+    <t>abba, ababbaa</t>
+  </si>
+  <si>
+    <t>baab, abbaab</t>
+  </si>
+  <si>
+    <t>babaab</t>
   </si>
 </sst>
 </file>
@@ -1049,6 +1103,170 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>45430.484464548616</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>45433.56760267361</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>45433.58018291667</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>45433.688659340274</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
